--- a/compared/real.xlsx
+++ b/compared/real.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD Thesis\decaGEN\decaGEN\compared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D8309-07C1-4E96-89AB-128E18D48619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5810B-8357-42E6-B146-36F7112EF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38915951-2F98-4139-816D-5C84EF1D7912}"/>
   </bookViews>
@@ -566,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -596,62 +596,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +664,7 @@
     <tableColumn id="1" xr3:uid="{77DA8958-20DA-40D5-8F8A-5EEAC72FBEDD}" name="patró" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{8AB33243-107D-4EC0-A99C-0CF3FD2DD212}" name="freq" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1033,16 +985,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521745F7-AB4F-46F6-BAB9-61E7BE9654AB}">
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1057,1345 +1009,1337 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>35.880834160873881</v>
+      <c r="B2">
+        <v>9033</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>14.20456802383317</v>
+      <c r="B3">
+        <v>3576</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>10.391261171797421</v>
+      <c r="B4">
+        <v>2616</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3">
-        <v>6.7169811320754711</v>
+      <c r="B5">
+        <v>1691</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>5.1678252234359494</v>
+      <c r="B6">
+        <v>1301</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
-        <v>2.3872889771598809</v>
+      <c r="B7">
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3">
-        <v>1.982125124131082</v>
+      <c r="B8">
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
-        <v>1.882820258192651</v>
+      <c r="B9">
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>1.6206554121151939</v>
+      <c r="B10">
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3">
-        <v>1.557100297914598</v>
+      <c r="B11">
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
-        <v>1.4419066534260181</v>
+      <c r="B12">
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3">
-        <v>1.41012909632572</v>
+      <c r="B13">
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3">
-        <v>1.3743793445878849</v>
+      <c r="B14">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3">
-        <v>1.279046673286991</v>
+      <c r="B15">
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3">
-        <v>1.203574975173783</v>
+      <c r="B16">
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3">
-        <v>1.024826216484608</v>
+      <c r="B17">
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.69116186693147963</v>
+      <c r="B18">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.68321747765640517</v>
+      <c r="B19">
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.62363455809334667</v>
+      <c r="B20">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3">
-        <v>0.51241310824230391</v>
+      <c r="B21">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.47666335650446873</v>
+      <c r="B22">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.41310824230387277</v>
+      <c r="B23">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.38133068520357499</v>
+      <c r="B24">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.30983118172790469</v>
+      <c r="B25">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.29791459781529289</v>
+      <c r="B26">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.29394240317775572</v>
+      <c r="B27">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3">
-        <v>0.28599801390268131</v>
+      <c r="B28">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="3">
-        <v>0.27805362462760669</v>
+      <c r="B29">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
-        <v>0.26216484607745782</v>
+      <c r="B30">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3">
-        <v>0.25024826216484608</v>
+      <c r="B31">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3">
-        <v>0.23833167825223439</v>
+      <c r="B32">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="3">
-        <v>0.22244289970208539</v>
+      <c r="B33">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="3">
-        <v>0.20655412115193639</v>
+      <c r="B34">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="3">
-        <v>0.18669314796425021</v>
+      <c r="B35">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3">
-        <v>0.17874875868917581</v>
+      <c r="B36">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
-        <v>0.17477656405163849</v>
+      <c r="B37">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="3">
-        <v>0.1588877855014896</v>
+      <c r="B38">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="3">
-        <v>0.1588877855014896</v>
+      <c r="B39">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="3">
-        <v>0.1429990069513406</v>
+      <c r="B40">
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="3">
-        <v>0.1390268123138034</v>
+      <c r="B41">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="3">
-        <v>0.13505461767626609</v>
+      <c r="B42">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="3">
-        <v>0.1191658391261172</v>
+      <c r="B43">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="3">
-        <v>0.10724925521350551</v>
+      <c r="B44">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="3">
-        <v>0.10327706057596819</v>
+      <c r="B45">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="3">
-        <v>9.9304865938430978E-2</v>
+      <c r="B46">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="3">
-        <v>9.5332671300893748E-2</v>
+      <c r="B47">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="3">
-        <v>9.5332671300893748E-2</v>
+      <c r="B48">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="3">
-        <v>9.1360476663356505E-2</v>
+      <c r="B49">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="3">
-        <v>8.7388282025819261E-2</v>
+      <c r="B50">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="3">
-        <v>7.9443892750744788E-2</v>
+      <c r="B51">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="3">
-        <v>7.9443892750744788E-2</v>
+      <c r="B52">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="3">
-        <v>7.5471698113207544E-2</v>
+      <c r="B53">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="3">
-        <v>6.3555114200595828E-2</v>
+      <c r="B54">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="3">
-        <v>5.9582919563058591E-2</v>
+      <c r="B55">
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="3">
-        <v>5.9582919563058591E-2</v>
+      <c r="B56">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="3">
-        <v>5.5610724925521347E-2</v>
+      <c r="B57">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="3">
-        <v>4.7666335650446867E-2</v>
+      <c r="B58">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="3">
-        <v>4.7666335650446867E-2</v>
+      <c r="B59">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="3">
-        <v>4.7666335650446867E-2</v>
+      <c r="B60">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="3">
-        <v>4.3694141012909631E-2</v>
+      <c r="B61">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="3">
-        <v>4.3694141012909631E-2</v>
+      <c r="B62">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="3">
-        <v>4.3694141012909631E-2</v>
+      <c r="B63">
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="3">
-        <v>4.3694141012909631E-2</v>
+      <c r="B64">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="3">
-        <v>4.3694141012909631E-2</v>
+      <c r="B65">
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="3">
-        <v>3.9721946375372387E-2</v>
+      <c r="B66">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="3">
-        <v>3.9721946375372387E-2</v>
+      <c r="B67">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="3">
-        <v>3.9721946375372387E-2</v>
+      <c r="B68">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="3">
-        <v>3.9721946375372387E-2</v>
+      <c r="B69">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="3">
-        <v>3.9721946375372387E-2</v>
+      <c r="B70">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="3">
-        <v>3.5749751737835157E-2</v>
+      <c r="B71">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="3">
-        <v>3.1777557100297907E-2</v>
+      <c r="B72">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="3">
-        <v>3.1777557100297907E-2</v>
+      <c r="B73">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="3">
-        <v>2.780536246276067E-2</v>
+      <c r="B74">
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="3">
-        <v>2.780536246276067E-2</v>
+      <c r="B75">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="3">
-        <v>2.780536246276067E-2</v>
+      <c r="B76">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="3">
-        <v>2.780536246276067E-2</v>
+      <c r="B77">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="3">
-        <v>2.3833167825223441E-2</v>
+      <c r="B78">
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="3">
-        <v>2.3833167825223441E-2</v>
+      <c r="B79">
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="3">
-        <v>2.3833167825223441E-2</v>
+      <c r="B80">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B81" s="3">
-        <v>2.3833167825223441E-2</v>
+      <c r="B81">
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="3">
-        <v>2.3833167825223441E-2</v>
+      <c r="B82">
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="3">
-        <v>1.98609731876862E-2</v>
+      <c r="B83">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="3">
-        <v>1.98609731876862E-2</v>
+      <c r="B84">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="3">
-        <v>1.98609731876862E-2</v>
+      <c r="B85">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="3">
-        <v>1.98609731876862E-2</v>
+      <c r="B86">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B87" s="3">
-        <v>1.98609731876862E-2</v>
+      <c r="B87">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="3">
-        <v>1.588877855014896E-2</v>
+      <c r="B88">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="3">
-        <v>1.588877855014896E-2</v>
+      <c r="B89">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B90">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B91">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B92">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B93">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B94">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B95">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B96">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B97">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B98">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B99">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B100">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B101">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B102">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B103" s="3">
-        <v>1.191658391261172E-2</v>
+      <c r="B103">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B104">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B105" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B106" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B107" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B107">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B109">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B110" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B110">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B111" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B112" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B112">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B113">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B114">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B115" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B115">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B116">
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="3">
-        <v>7.9443892750744784E-3</v>
+      <c r="B117">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B119" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B120" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B121" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B124" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B127" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B128" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B129" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B130" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B131" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B132" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B133" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B134" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B135" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B137" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B138" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B142" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B143" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B145" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B149" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B150" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B152" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B153" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B154" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B156" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B157" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B158" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B159" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B161" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B163" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B165" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B166" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B167" s="3">
-        <v>3.9721946375372392E-3</v>
+      <c r="B167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B168" s="3">
-        <v>3.9721946375372392E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="5"/>
-      <c r="B169" s="6"/>
-    </row>
-    <row r="1048576" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1048576" s="2"/>
-      <c r="B1048576" s="4"/>
+      <c r="B168">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
